--- a/Personal Budget.xlsx
+++ b/Personal Budget.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fauaf\Desktop\academic-writing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9B15626-1A90-413A-BF06-FD7585F77920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3CD79A0-3A95-434F-B078-9AD51B843812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7425" yWindow="1920" windowWidth="25290" windowHeight="13335" xr2:uid="{DCDF0973-7296-4708-8F7A-5892527CD97B}"/>
+    <workbookView xWindow="2220" yWindow="1125" windowWidth="25290" windowHeight="13335" xr2:uid="{DCDF0973-7296-4708-8F7A-5892527CD97B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,87 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>income</t>
+  </si>
+  <si>
+    <t>debits</t>
+  </si>
+  <si>
+    <t>balance</t>
+  </si>
+  <si>
+    <t>Starting Balance</t>
+  </si>
+  <si>
+    <t>CVS</t>
+  </si>
+  <si>
+    <t>Starbucks</t>
+  </si>
+  <si>
+    <t>restaurant</t>
+  </si>
+  <si>
+    <t>groceries</t>
+  </si>
+  <si>
+    <t>Metro</t>
+  </si>
+  <si>
+    <t>metro</t>
+  </si>
+  <si>
+    <t>Piedmont Tire and Auto</t>
+  </si>
+  <si>
+    <t>car/gas</t>
+  </si>
+  <si>
+    <t>Comcast Activation</t>
+  </si>
+  <si>
+    <t>utilities</t>
+  </si>
+  <si>
+    <t>Chipotle</t>
+  </si>
+  <si>
+    <t>Home Depot (Keys)</t>
+  </si>
+  <si>
+    <t>Barca Pier &amp; Wine</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,13 +139,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -81,6 +164,24 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9325E347-A26B-4694-B8DD-1C00B4CBCBE2}" name="Table1" displayName="Table1" ref="A1:G11" totalsRowShown="0">
+  <autoFilter ref="A1:G11" xr:uid="{9325E347-A26B-4694-B8DD-1C00B4CBCBE2}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{BDD10A40-5503-4BBA-8044-01BE0829408E}" name="month">
+      <calculatedColumnFormula>MONTH(Table1[[#This Row],[date]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{C563AEF5-E546-4E67-84D3-0BA6B2EE62AD}" name="date"/>
+    <tableColumn id="3" xr3:uid="{6ED18E3A-8282-438C-9217-0329DF11E287}" name="description"/>
+    <tableColumn id="4" xr3:uid="{09ABCA06-1DA9-49B7-8F55-D12D2CE81A76}" name="category"/>
+    <tableColumn id="5" xr3:uid="{3E9455CD-7418-4D23-9D9B-B0250959FAD1}" name="income" dataCellStyle="Currency"/>
+    <tableColumn id="6" xr3:uid="{F7E53692-95B4-49BA-BBF2-6DA1AEDA7741}" name="debits" dataCellStyle="Currency"/>
+    <tableColumn id="7" xr3:uid="{FC3BCFC8-4A3F-4E96-8F1F-C5BE6346A9F9}" name="balance" dataCellStyle="Currency"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -380,12 +481,231 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0DF396-19C8-4228-A321-3DCAFCCA1A26}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.5703125" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>MONTH(Table1[[#This Row],[date]])</f>
+        <v>9</v>
+      </c>
+      <c r="B2" s="1">
+        <v>44440</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>MONTH(Table1[[#This Row],[date]])</f>
+        <v>9</v>
+      </c>
+      <c r="B3" s="3">
+        <v>44440</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2">
+        <v>7.48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f>MONTH(Table1[[#This Row],[date]])</f>
+        <v>9</v>
+      </c>
+      <c r="B4" s="3">
+        <v>44442</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2">
+        <v>6.33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f>MONTH(Table1[[#This Row],[date]])</f>
+        <v>9</v>
+      </c>
+      <c r="B5" s="3">
+        <v>44442</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f>MONTH(Table1[[#This Row],[date]])</f>
+        <v>9</v>
+      </c>
+      <c r="B6" s="3">
+        <v>44442</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="2">
+        <v>181.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f>MONTH(Table1[[#This Row],[date]])</f>
+        <v>9</v>
+      </c>
+      <c r="B7" s="3">
+        <v>44443</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f>MONTH(Table1[[#This Row],[date]])</f>
+        <v>9</v>
+      </c>
+      <c r="B8" s="3">
+        <v>44443</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2">
+        <v>9.32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f>MONTH(Table1[[#This Row],[date]])</f>
+        <v>9</v>
+      </c>
+      <c r="B9" s="3">
+        <v>44443</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="2">
+        <v>9.5299999999999994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f>MONTH(Table1[[#This Row],[date]])</f>
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>44443</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="2">
+        <v>20.96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f>MONTH(Table1[[#This Row],[date]])</f>
+        <v>9</v>
+      </c>
+      <c r="B11" s="3">
+        <v>44443</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="2">
+        <v>24.54</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{BB2E4E37-5BAA-4F08-82EA-269BBBEBF0B0}">
+      <formula1>"income, groceries, restaurant, car/gas, rent, utilities, entertainment, metro, student debt"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Personal Budget.xlsx
+++ b/Personal Budget.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fauaf\Desktop\academic-writing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3CD79A0-3A95-434F-B078-9AD51B843812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB862D9F-4343-47B9-9F93-247969D94F03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="1125" windowWidth="25290" windowHeight="13335" xr2:uid="{DCDF0973-7296-4708-8F7A-5892527CD97B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DCDF0973-7296-4708-8F7A-5892527CD97B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>month</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>Barca Pier &amp; Wine</t>
+  </si>
+  <si>
+    <t>gm</t>
   </si>
 </sst>
 </file>
@@ -481,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0DF396-19C8-4228-A321-3DCAFCCA1A26}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,6 +700,11 @@
         <v>24.54</v>
       </c>
     </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{BB2E4E37-5BAA-4F08-82EA-269BBBEBF0B0}">
